--- a/resources/Gehaltabrechnung.xlsx
+++ b/resources/Gehaltabrechnung.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$G$41</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -345,7 +345,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -438,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -615,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,21 +626,21 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>127835</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1520.60445</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>127855</v>
       </c>
@@ -718,7 +718,7 @@
         <v>789.28924999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>127863</v>
       </c>
@@ -744,7 +744,7 @@
         <v>2261.1867000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>127851</v>
       </c>
@@ -770,7 +770,7 @@
         <v>1200.2353499999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>127841</v>
       </c>
@@ -796,7 +796,7 @@
         <v>965.92500000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>127846</v>
       </c>
@@ -822,7 +822,7 @@
         <v>1056.5550000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>127836</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1245.5795000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>127867</v>
       </c>
@@ -874,7 +874,7 @@
         <v>675.85600000000011</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>127834</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1086.6854999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>127838</v>
       </c>
@@ -926,7 +926,7 @@
         <v>915.89565000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>127861</v>
       </c>
@@ -952,7 +952,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>127870</v>
       </c>
@@ -978,7 +978,7 @@
         <v>363.15600000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>127839</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>4757.4761400000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>127862</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>127847</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1393.105</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>127832</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1226.9765000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>127859</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>127843</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>1321.4092499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>127865</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>363.15600000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>127854</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1909.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>127856</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>980.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>127845</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>2432.94</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>127833</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1563.5795000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>127869</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>259.83249999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>127850</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>924.65125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>127860</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1192.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>127866</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>127842</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1054.17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>127871</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>413.40000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>127852</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1300.9459499999998</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>127848</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1124.925</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>127857</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>862.84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>127853</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>127849</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1216.1194500000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>127844</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>1300.7392499999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>127840</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>2677.6117200000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>127864</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>768.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>127868</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>413.40000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>127858</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>768.5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>127837</v>
       </c>

--- a/resources/Gehaltabrechnung.xlsx
+++ b/resources/Gehaltabrechnung.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>Personalnummer</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Bonus</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -338,11 +341,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1615,8 +1619,8 @@
       <c r="D38" s="1">
         <v>33547</v>
       </c>
-      <c r="E38" s="2">
-        <v>0</v>
+      <c r="E38" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1667,9 +1671,7 @@
       <c r="D40" s="1">
         <v>30433</v>
       </c>
-      <c r="E40" s="2">
-        <v>2900</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s">
         <v>10</v>
       </c>

--- a/resources/Gehaltabrechnung.xlsx
+++ b/resources/Gehaltabrechnung.xlsx
@@ -36,259 +36,259 @@
     <t>Geburtsdatum</t>
   </si>
   <si>
+    <t>Tarif</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Achen</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Louisa</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Adamek</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Adler</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>Baier</t>
+  </si>
+  <si>
+    <t>Uwe</t>
+  </si>
+  <si>
+    <t>Beckenbauer</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Bürger</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Daecher</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Eisenberger</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Faubert</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Frankfurter</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Hopkins</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>Sabine</t>
+  </si>
+  <si>
+    <t>Kalowski</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>Kilpeläinen</t>
+  </si>
+  <si>
+    <t>Henna</t>
+  </si>
+  <si>
+    <t>Kortig</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Maier</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Laurin</t>
+  </si>
+  <si>
+    <t>Maur</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Meier</t>
+  </si>
+  <si>
+    <t>Ede</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t>Möller</t>
+  </si>
+  <si>
+    <t>Karsten</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Nacht</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Nagel</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Schiffer</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Schröder</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Kerstin</t>
+  </si>
+  <si>
+    <t>Schultheiss</t>
+  </si>
+  <si>
+    <t>Maximilian</t>
+  </si>
+  <si>
+    <t>Schweizer</t>
+  </si>
+  <si>
+    <t>Ulrike</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>Nichole</t>
+  </si>
+  <si>
+    <t>Strauss</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Theissen</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Jahresgehalt</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Monatsgehalt September</t>
-  </si>
-  <si>
-    <t>Tarif</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>Achen</t>
-  </si>
-  <si>
-    <t>Lukas</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Louisa</t>
-  </si>
-  <si>
-    <t>Markus</t>
-  </si>
-  <si>
-    <t>Adamek</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Adler</t>
-  </si>
-  <si>
-    <t>Mandy</t>
-  </si>
-  <si>
-    <t>Baier</t>
-  </si>
-  <si>
-    <t>Uwe</t>
-  </si>
-  <si>
-    <t>Beckenbauer</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Bürger</t>
-  </si>
-  <si>
-    <t>Petra</t>
-  </si>
-  <si>
-    <t>Daecher</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Eisenberger</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Faubert</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Frankfurter</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Hopkins</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Kaiser</t>
-  </si>
-  <si>
-    <t>Sabine</t>
-  </si>
-  <si>
-    <t>Kalowski</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Linus</t>
-  </si>
-  <si>
-    <t>Kilpeläinen</t>
-  </si>
-  <si>
-    <t>Henna</t>
-  </si>
-  <si>
-    <t>Kortig</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Maier</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Laurin</t>
-  </si>
-  <si>
-    <t>Maur</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
-    <t>Meier</t>
-  </si>
-  <si>
-    <t>Ede</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Meyer</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Möller</t>
-  </si>
-  <si>
-    <t>Karsten</t>
-  </si>
-  <si>
-    <t>Morris</t>
-  </si>
-  <si>
-    <t>Vernon</t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
-    <t>Marc</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Nacht</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
-    <t>Nagel</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Schiffer</t>
-  </si>
-  <si>
-    <t>Andrea</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Schröder</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Kerstin</t>
-  </si>
-  <si>
-    <t>Schultheiss</t>
-  </si>
-  <si>
-    <t>Maximilian</t>
-  </si>
-  <si>
-    <t>Schweizer</t>
-  </si>
-  <si>
-    <t>Ulrike</t>
-  </si>
-  <si>
-    <t>Sharpe</t>
-  </si>
-  <si>
-    <t>Nichole</t>
-  </si>
-  <si>
-    <t>Strauss</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Theissen</t>
-  </si>
-  <si>
-    <t>Monika</t>
-  </si>
-  <si>
-    <t>Jahresgehalt</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,16 +658,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
@@ -675,10 +675,10 @@
         <v>127835</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>21270</v>
@@ -687,7 +687,7 @@
         <v>5738.13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2">
         <v>76030.222500000003</v>
@@ -701,10 +701,10 @@
         <v>127855</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>30014</v>
@@ -713,7 +713,7 @@
         <v>2978.45</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>39464.462499999994</v>
@@ -727,10 +727,10 @@
         <v>127863</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>24605</v>
@@ -739,7 +739,7 @@
         <v>8532.7800000000007</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>113059.33500000001</v>
@@ -753,10 +753,10 @@
         <v>127851</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>28782</v>
@@ -765,7 +765,7 @@
         <v>4529.1899999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2">
         <v>60011.767499999994</v>
@@ -779,10 +779,10 @@
         <v>127841</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>23865</v>
@@ -791,7 +791,7 @@
         <v>3645</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>48296.25</v>
@@ -805,10 +805,10 @@
         <v>127846</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>25761</v>
@@ -817,7 +817,7 @@
         <v>3987</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>52827.75</v>
@@ -831,10 +831,10 @@
         <v>127836</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>21477</v>
@@ -843,7 +843,7 @@
         <v>4700.3</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
         <v>62278.975000000006</v>
@@ -857,10 +857,10 @@
         <v>127867</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>34768</v>
@@ -869,7 +869,7 @@
         <v>2550.4</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2">
         <v>33792.800000000003</v>
@@ -883,10 +883,10 @@
         <v>127834</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>20663</v>
@@ -895,7 +895,7 @@
         <v>4100.7</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2">
         <v>54334.274999999994</v>
@@ -909,10 +909,10 @@
         <v>127838</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>21995</v>
@@ -921,7 +921,7 @@
         <v>3456.21</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>45794.782500000001</v>
@@ -935,10 +935,10 @@
         <v>127861</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>31324</v>
@@ -947,7 +947,7 @@
         <v>3600</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>47700</v>
@@ -961,10 +961,10 @@
         <v>127870</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>36431</v>
@@ -973,7 +973,7 @@
         <v>1370.4</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2">
         <v>18157.800000000003</v>
@@ -987,10 +987,10 @@
         <v>127839</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>23209</v>
@@ -999,7 +999,7 @@
         <v>18439.830000000002</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2">
         <v>237873.80700000003</v>
@@ -1013,10 +1013,10 @@
         <v>127862</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>31585</v>
@@ -1025,7 +1025,7 @@
         <v>3600</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>47700</v>
@@ -1039,10 +1039,10 @@
         <v>127847</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>26633</v>
@@ -1051,7 +1051,7 @@
         <v>5257</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2">
         <v>69655.25</v>
@@ -1065,10 +1065,10 @@
         <v>127832</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="1">
         <v>18842</v>
@@ -1077,7 +1077,7 @@
         <v>4630.1000000000004</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2">
         <v>61348.825000000004</v>
@@ -1091,10 +1091,10 @@
         <v>127859</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="1">
         <v>30485</v>
@@ -1103,7 +1103,7 @@
         <v>4800</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2">
         <v>63600</v>
@@ -1117,10 +1117,10 @@
         <v>127843</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="1">
         <v>24337</v>
@@ -1129,7 +1129,7 @@
         <v>4986.45</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2">
         <v>66070.462499999994</v>
@@ -1143,10 +1143,10 @@
         <v>127865</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>36194</v>
@@ -1155,7 +1155,7 @@
         <v>1370.4</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
         <v>18157.800000000003</v>
@@ -1169,10 +1169,10 @@
         <v>127854</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
       </c>
       <c r="D21" s="1">
         <v>29774</v>
@@ -1181,7 +1181,7 @@
         <v>7400</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2">
         <v>95460</v>
@@ -1195,10 +1195,10 @@
         <v>127856</v>
       </c>
       <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
       </c>
       <c r="D22" s="1">
         <v>30223</v>
@@ -1207,7 +1207,7 @@
         <v>3700</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <v>49025</v>
@@ -1221,10 +1221,10 @@
         <v>127845</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1">
         <v>25226</v>
@@ -1233,7 +1233,7 @@
         <v>9430</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2">
         <v>121647</v>
@@ -1247,10 +1247,10 @@
         <v>127833</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="1">
         <v>19331</v>
@@ -1259,7 +1259,7 @@
         <v>5900.3</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2">
         <v>78178.975000000006</v>
@@ -1273,10 +1273,10 @@
         <v>127869</v>
       </c>
       <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
       </c>
       <c r="D25" s="1">
         <v>37489</v>
@@ -1285,7 +1285,7 @@
         <v>980.5</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2">
         <v>12991.625</v>
@@ -1299,10 +1299,10 @@
         <v>127850</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>28342</v>
@@ -1311,7 +1311,7 @@
         <v>3489.25</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2">
         <v>46232.5625</v>
@@ -1325,10 +1325,10 @@
         <v>127860</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>30788</v>
@@ -1337,7 +1337,7 @@
         <v>4500</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2">
         <v>59625</v>
@@ -1351,10 +1351,10 @@
         <v>127866</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1">
         <v>33865</v>
@@ -1363,7 +1363,7 @@
         <v>3200</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
         <v>42400</v>
@@ -1377,10 +1377,10 @@
         <v>127842</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>24024</v>
@@ -1389,7 +1389,7 @@
         <v>3978</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
         <v>52708.5</v>
@@ -1403,10 +1403,10 @@
         <v>127871</v>
       </c>
       <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="1">
         <v>35724</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="2">
         <v>20670</v>
@@ -1429,10 +1429,10 @@
         <v>127852</v>
       </c>
       <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="1">
         <v>28738</v>
@@ -1441,7 +1441,7 @@
         <v>4909.2299999999996</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2">
         <v>65047.297499999993</v>
@@ -1455,10 +1455,10 @@
         <v>127848</v>
       </c>
       <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
       </c>
       <c r="D32" s="1">
         <v>27014</v>
@@ -1467,7 +1467,7 @@
         <v>4245</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2">
         <v>56246.25</v>
@@ -1481,10 +1481,10 @@
         <v>127857</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1">
         <v>30254</v>
@@ -1493,7 +1493,7 @@
         <v>3256</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2">
         <v>43142</v>
@@ -1507,10 +1507,10 @@
         <v>127853</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1">
         <v>29164</v>
@@ -1519,7 +1519,7 @@
         <v>5200</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2">
         <v>68900</v>
@@ -1533,10 +1533,10 @@
         <v>127849</v>
       </c>
       <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
       </c>
       <c r="D35" s="1">
         <v>27908</v>
@@ -1545,7 +1545,7 @@
         <v>4589.13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2">
         <v>60805.972500000003</v>
@@ -1559,10 +1559,10 @@
         <v>127844</v>
       </c>
       <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
       </c>
       <c r="D36" s="1">
         <v>24697</v>
@@ -1571,7 +1571,7 @@
         <v>4908.45</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2">
         <v>65036.962499999994</v>
@@ -1585,10 +1585,10 @@
         <v>127840</v>
       </c>
       <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
       </c>
       <c r="D37" s="1">
         <v>23448</v>
@@ -1597,7 +1597,7 @@
         <v>10378.34</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="2">
         <v>133880.58600000001</v>
@@ -1611,19 +1611,19 @@
         <v>127864</v>
       </c>
       <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
       </c>
       <c r="D38" s="1">
         <v>33547</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" s="2">
         <v>38425</v>
@@ -1637,10 +1637,10 @@
         <v>127868</v>
       </c>
       <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="1">
         <v>35856</v>
@@ -1649,7 +1649,7 @@
         <v>1560</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="2">
         <v>20670</v>
@@ -1663,17 +1663,17 @@
         <v>127858</v>
       </c>
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="1">
         <v>30433</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="2">
         <v>38425</v>
@@ -1687,10 +1687,10 @@
         <v>127837</v>
       </c>
       <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
       </c>
       <c r="D41" s="1">
         <v>21693</v>
@@ -1699,7 +1699,7 @@
         <v>4320.45</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="2">
         <v>57245.962499999994</v>
